--- a/draft/bin/Debug/courseReport.xlsx
+++ b/draft/bin/Debug/courseReport.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enma Yuki\Documents\Assignment\SoftwareA2\draft\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F807B4D3-9891-4046-92FB-12C8343FBE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A348A16-E8A2-497D-985E-E1A857B8FADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{479F9817-977A-4E85-AD84-981BDB0E576D}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{C2B6A7A2-5967-45DA-A3B6-F071D1E7A733}"/>
   </bookViews>
   <sheets>
-    <sheet name="Year2 Students" sheetId="3" r:id="rId1"/>
-    <sheet name="Year1 Students" sheetId="2" r:id="rId2"/>
-    <sheet name="subject" sheetId="1" r:id="rId3"/>
+    <sheet name="year1 lesson" sheetId="8" r:id="rId1"/>
+    <sheet name="ionic total sheet" sheetId="7" r:id="rId2"/>
+    <sheet name="Ionic lesson6" sheetId="6" r:id="rId3"/>
+    <sheet name="Ionic lesson5" sheetId="5" r:id="rId4"/>
+    <sheet name="Ionic lesson4" sheetId="4" r:id="rId5"/>
+    <sheet name="Ionic lesson3" sheetId="3" r:id="rId6"/>
+    <sheet name="Ionic lesson2" sheetId="2" r:id="rId7"/>
+    <sheet name="Ionic lesson1" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,36 +43,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="39">
   <si>
     <t>student_id</t>
-  </si>
-  <si>
-    <t>s101</t>
-  </si>
-  <si>
-    <t>Ink</t>
-  </si>
-  <si>
-    <t>s102</t>
-  </si>
-  <si>
-    <t>Jet</t>
-  </si>
-  <si>
-    <t>s103</t>
-  </si>
-  <si>
-    <t>Kit</t>
-  </si>
-  <si>
-    <t>s104</t>
-  </si>
-  <si>
-    <t>Light</t>
-  </si>
-  <si>
-    <t>Student_Name</t>
   </si>
   <si>
     <t>s201</t>
@@ -76,16 +54,13 @@
     <t>Ark</t>
   </si>
   <si>
-    <t>Late</t>
+    <t>Invalid</t>
   </si>
   <si>
     <t>s202</t>
   </si>
   <si>
     <t>Blue</t>
-  </si>
-  <si>
-    <t>OnTime</t>
   </si>
   <si>
     <t>s203</t>
@@ -124,6 +99,9 @@
     <t>Hatred</t>
   </si>
   <si>
+    <t>Student_Name</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
@@ -134,6 +112,59 @@
   </si>
   <si>
     <t>Total student number</t>
+  </si>
+  <si>
+    <t>Valid Register number</t>
+  </si>
+  <si>
+    <t>Invalid Register number</t>
+  </si>
+  <si>
+    <t>Late</t>
+  </si>
+  <si>
+    <t>s103</t>
+  </si>
+  <si>
+    <t>Kit</t>
+  </si>
+  <si>
+    <t>s102</t>
+  </si>
+  <si>
+    <t>Jet</t>
+  </si>
+  <si>
+    <t>student_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Student_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s101</t>
+  </si>
+  <si>
+    <t>Ink</t>
+  </si>
+  <si>
+    <t>s104</t>
+  </si>
+  <si>
+    <t>Light</t>
   </si>
 </sst>
 </file>
@@ -499,18 +530,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F71AE93-52E0-4AFA-824E-CC1B320C55EB}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709CEB37-E72F-4EA7-90BF-679F16C636EA}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -518,228 +549,346 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1">
-        <v>0.94006944444444451</v>
+        <v>0.8125</v>
       </c>
       <c r="D2" s="1">
         <v>0.9375</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1">
-        <v>0.93319444444444455</v>
+        <v>0.8125</v>
       </c>
       <c r="D3" s="1">
         <v>0.9375</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1">
-        <v>0.93319444444444455</v>
+        <v>0.8125</v>
       </c>
       <c r="D4" s="1">
         <v>0.9375</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1">
-        <v>0.93319444444444455</v>
+        <v>0.8125</v>
       </c>
       <c r="D5" s="1">
         <v>0.9375</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1">
-        <v>0.93319444444444455</v>
+        <v>0.8125</v>
       </c>
       <c r="D6" s="1">
         <v>0.9375</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1">
-        <v>0.93319444444444455</v>
+        <v>0.8125</v>
       </c>
       <c r="D7" s="1">
         <v>0.9375</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1">
-        <v>0.93319444444444455</v>
+        <v>0.8125</v>
       </c>
       <c r="D8" s="1">
         <v>0.9375</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1">
-        <v>0.94021990740740735</v>
+        <v>0.8125</v>
       </c>
       <c r="D9" s="1">
         <v>0.9375</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1">
-        <v>0.94006944444444451</v>
+        <v>0.8125</v>
       </c>
       <c r="D10" s="1">
         <v>0.9375</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1">
-        <v>0.93319444444444455</v>
+        <v>0.8125</v>
       </c>
       <c r="D11" s="1">
         <v>0.9375</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1">
-        <v>0.93319444444444455</v>
+        <v>0.8125</v>
       </c>
       <c r="D12" s="1">
         <v>0.9375</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1">
-        <v>0.93319444444444455</v>
+        <v>0.8125</v>
       </c>
       <c r="D13" s="1">
         <v>0.9375</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -749,8 +898,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF27B82-C7B4-4F14-B167-48714CBB4339}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0BE84C-7220-44C9-8655-9EF8863D8399}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -765,39 +914,103 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -807,19 +1020,3973 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80EBED9-7E7E-4169-BB55-72712B7D0D2F}">
-  <dimension ref="A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E86BCD7-E20D-4615-9E9F-EA7C3B47BA19}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.60673611111111114</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.48249999999999998</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.49462962962962959</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.53577546296296297</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.52416666666666667</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.59986111111111107</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.59986111111111107</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.60688657407407409</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200E3CF1-E725-4A9B-95AB-96A0272398B1}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.44083333333333335</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.60673611111111114</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.49462962962962959</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.52416666666666667</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.66077546296296297</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.59986111111111107</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.59986111111111107</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.60688657407407409</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26972C4-C917-4030-ABCB-B494B3F8708D}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.60673611111111114</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.49462962962962959</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.66077546296296297</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.52416666666666667</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.59986111111111107</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.59986111111111107</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.60688657407407409</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAAFFFB-1A4D-4E3D-AA34-3AE1D33492D4}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.60673611111111114</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.48249999999999998</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.49462962962962959</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.53577546296296297</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.52416666666666667</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.59986111111111107</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.59986111111111107</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.60688657407407409</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD65EE0-8B87-41AE-A288-B18B0FB3F8B3}">
+  <dimension ref="A1:E180"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E85" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E88" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E89" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E91" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>26</v>
+      </c>
+      <c r="B92" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E92" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E95" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E97" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E98" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E99" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>26</v>
+      </c>
+      <c r="B100" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E100" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E101" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E102" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E103" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E104" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E105" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E106" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E107" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>26</v>
+      </c>
+      <c r="B108" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E108" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>28</v>
+      </c>
+      <c r="B109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E109" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E111" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E112" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E113" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E114" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E115" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>26</v>
+      </c>
+      <c r="B116" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E116" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>28</v>
+      </c>
+      <c r="B117" t="s">
+        <v>29</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E118" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E120" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E121" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E122" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E123" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>26</v>
+      </c>
+      <c r="B124" t="s">
+        <v>27</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E124" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>28</v>
+      </c>
+      <c r="B125" t="s">
+        <v>29</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E125" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E126" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E127" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E128" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E129" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E130" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E131" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>26</v>
+      </c>
+      <c r="B132" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E132" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>28</v>
+      </c>
+      <c r="B133" t="s">
+        <v>29</v>
+      </c>
+      <c r="C133" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E133" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>16</v>
+      </c>
+      <c r="B134" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E134" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D135" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E135" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E136" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E137" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D138" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E138" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D139" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E139" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>26</v>
+      </c>
+      <c r="B140" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D140" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E140" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>28</v>
+      </c>
+      <c r="B141" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D141" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E141" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>16</v>
+      </c>
+      <c r="B142" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D142" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E142" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D143" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E143" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D144" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E144" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D145" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E145" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D146" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E146" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D147" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E147" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>26</v>
+      </c>
+      <c r="B148" t="s">
+        <v>27</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E148" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>28</v>
+      </c>
+      <c r="B149" t="s">
+        <v>29</v>
+      </c>
+      <c r="C149" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D149" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E149" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>16</v>
+      </c>
+      <c r="B150" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D150" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E150" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D151" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E151" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D152" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E152" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D153" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E153" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D154" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E154" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D155" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E155" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>26</v>
+      </c>
+      <c r="B156" t="s">
+        <v>27</v>
+      </c>
+      <c r="C156" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E156" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>28</v>
+      </c>
+      <c r="B157" t="s">
+        <v>29</v>
+      </c>
+      <c r="C157" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D157" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E157" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>16</v>
+      </c>
+      <c r="B158" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E158" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159" t="s">
+        <v>15</v>
+      </c>
+      <c r="C159" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D159" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E159" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D160" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E160" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D161" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E161" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D162" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E162" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D163" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E163" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>26</v>
+      </c>
+      <c r="B164" t="s">
+        <v>27</v>
+      </c>
+      <c r="C164" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D164" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E164" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>28</v>
+      </c>
+      <c r="B165" t="s">
+        <v>29</v>
+      </c>
+      <c r="C165" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D165" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2</v>
+      </c>
+      <c r="C166" s="1">
+        <v>0.44083333333333335</v>
+      </c>
+      <c r="D166" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E166" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" s="1">
+        <v>0.60673611111111114</v>
+      </c>
+      <c r="D167" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" s="1">
+        <v>0.61850694444444443</v>
+      </c>
+      <c r="D168" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E168" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="1">
+        <v>0.49462962962962959</v>
+      </c>
+      <c r="D169" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E169" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" s="1">
+        <v>0.52416666666666667</v>
+      </c>
+      <c r="D170" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E170" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" s="1">
+        <v>0.66077546296296297</v>
+      </c>
+      <c r="D171" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E171" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" s="1">
+        <v>0.59986111111111107</v>
+      </c>
+      <c r="D172" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173" t="s">
+        <v>15</v>
+      </c>
+      <c r="C173" s="1">
+        <v>0.59986111111111107</v>
+      </c>
+      <c r="D173" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E173" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>16</v>
+      </c>
+      <c r="B174" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174" s="1">
+        <v>0.60688657407407409</v>
+      </c>
+      <c r="D174" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E174" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>22</v>
+      </c>
+      <c r="B178">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>23</v>
+      </c>
+      <c r="B179">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>24</v>
+      </c>
+      <c r="B180">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E12A416-B251-4604-A62D-E7D2FA472D8C}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.60673611111111114</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.44083333333333335</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.49462962962962959</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.66077546296296297</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.52416666666666667</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.59986111111111107</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.59986111111111107</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.60688657407407409</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
